--- a/src/main/resources/excels/CreateService.xlsx
+++ b/src/main/resources/excels/CreateService.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\projectIJ\src\main\resources\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7DA942-A03D-4D68-BDA2-7C6FB12DA111}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A78CF4-2BBC-4BCB-8420-D2626FC4E138}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Result</t>
   </si>
   <si>
-    <t>CS_01</t>
-  </si>
-  <si>
     <t>Check text by language</t>
   </si>
   <si>
@@ -51,16 +48,10 @@
     <t>Text should be shown correctly by language</t>
   </si>
   <si>
-    <t>CS_02</t>
-  </si>
-  <si>
     <t>Check validate all field</t>
   </si>
   <si>
     <t>Error message should be shown correctly</t>
-  </si>
-  <si>
-    <t>CS_03</t>
   </si>
   <si>
     <t>1. Login to Dashboard
@@ -69,9 +60,6 @@
   </si>
   <si>
     <t>Create successfull message should be shown</t>
-  </si>
-  <si>
-    <t>CS_04</t>
   </si>
   <si>
     <t>Check normal service on SF</t>
@@ -85,13 +73,7 @@
     <t>Service infor should be show correctly as created</t>
   </si>
   <si>
-    <t>CS_05</t>
-  </si>
-  <si>
     <t>Create service belong to 1 collection</t>
-  </si>
-  <si>
-    <t>CS_06</t>
   </si>
   <si>
     <t>Check service belong to 1 collection display on SF</t>
@@ -107,22 +89,10 @@
     <t>Service infor should be show correctly as created and shown in collection page</t>
   </si>
   <si>
-    <t>CS_07</t>
-  </si>
-  <si>
-    <t>CS_08</t>
-  </si>
-  <si>
     <t>Service infor should be show correctly as created and shown in all collection page</t>
   </si>
   <si>
-    <t>CS_09</t>
-  </si>
-  <si>
     <t>Create listing service</t>
-  </si>
-  <si>
-    <t>CS_10</t>
   </si>
   <si>
     <t>Check listing service on SF</t>
@@ -140,13 +110,7 @@
 Price should be not shown.</t>
   </si>
   <si>
-    <t>CS_11</t>
-  </si>
-  <si>
     <t>Create service has SEO infor</t>
-  </si>
-  <si>
-    <t>CS_12</t>
   </si>
   <si>
     <t>Check SEO infor of service on SF</t>
@@ -178,7 +142,46 @@
     <t>Check service belong to multiple collection on SF</t>
   </si>
   <si>
+    <t>CS01</t>
+  </si>
+  <si>
+    <t>CS02</t>
+  </si>
+  <si>
+    <t>CS03</t>
+  </si>
+  <si>
+    <t>CS04</t>
+  </si>
+  <si>
+    <t>CS05</t>
+  </si>
+  <si>
+    <t>CS06</t>
+  </si>
+  <si>
+    <t>CS07</t>
+  </si>
+  <si>
+    <t>CS08</t>
+  </si>
+  <si>
+    <t>CS09</t>
+  </si>
+  <si>
+    <t>CS10</t>
+  </si>
+  <si>
+    <t>CS11</t>
+  </si>
+  <si>
+    <t>CS12</t>
+  </si>
+  <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -493,7 +496,7 @@
   <dimension ref="A1:E1004"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -504,7 +507,7 @@
     <col min="4" max="4" customWidth="true" width="54.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,156 +526,186 @@
     </row>
     <row r="2" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
+      <c r="E2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
+      <c r="E3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="106.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="106.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="119.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
         <v>44</v>
@@ -680,16 +713,19 @@
     </row>
     <row r="13" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>39</v>
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
@@ -697,147 +733,147 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>

--- a/src/main/resources/excels/CreateService.xlsx
+++ b/src/main/resources/excels/CreateService.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\projectIJ\src\main\resources\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A78CF4-2BBC-4BCB-8420-D2626FC4E138}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7B44BE-D417-45CA-A428-812AFDD16621}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -54,92 +54,13 @@
     <t>Error message should be shown correctly</t>
   </si>
   <si>
-    <t>1. Login to Dashboard
-2. Go to Create Service page.
-3. Check create successful</t>
-  </si>
-  <si>
-    <t>Create successfull message should be shown</t>
-  </si>
-  <si>
-    <t>Check normal service on SF</t>
-  </si>
-  <si>
-    <t>1. Go to SF
-2. Search and go to search detail page
-3. Check service infor: Service name, Price, Image, Location, Time, Book Now button, Add to cart button, Description</t>
-  </si>
-  <si>
-    <t>Service infor should be show correctly as created</t>
-  </si>
-  <si>
-    <t>Create service belong to 1 collection</t>
-  </si>
-  <si>
-    <t>Check service belong to 1 collection display on SF</t>
-  </si>
-  <si>
-    <t>1. Go to SF
-2. Search and go to search detail page
-3. Check service infor: Service name, Price, Image, Location, Time, Book Now button, Add to cart button, Description, Collection link
-4. Click on Collection link 
-5. Verify new service display in collection page</t>
-  </si>
-  <si>
-    <t>Service infor should be show correctly as created and shown in collection page</t>
-  </si>
-  <si>
-    <t>Service infor should be show correctly as created and shown in all collection page</t>
-  </si>
-  <si>
     <t>Create listing service</t>
-  </si>
-  <si>
-    <t>Check listing service on SF</t>
-  </si>
-  <si>
-    <t>1. Go to SF
-2. Search and go to search detail page
-3. Check service infor: Service name, Price, Image, Location, Time, Book Now button, Add to cart button, Contact now button, Description, Collection link
-4. Click on Collection link 
-5. Verify new service display in collection page</t>
-  </si>
-  <si>
-    <t>Service infor should be show correctly as created and shown in collection page
-Contact Now button should be shown instead of Book now button and Add to cart button.
-Price should be not shown.</t>
-  </si>
-  <si>
-    <t>Create service has SEO infor</t>
-  </si>
-  <si>
-    <t>Check SEO infor of service on SF</t>
-  </si>
-  <si>
-    <t>1. Go to SF 
-2. Search and go to search detail page
-3. Check meta tag</t>
-  </si>
-  <si>
-    <t>meta tag has name="title", content = &lt;SEO title&gt;
-meta tag has name="description", content = &lt;SEO description&gt;
-meta tag has name="keyword", content = &lt;SEO keyword&gt;
-Service detail page should be navigated from SEO url</t>
   </si>
   <si>
     <t>1. Login to Dashboard
 2. Go to Create Service page.
 3. Check error when save with empty empty
 4. Check error when input out of range</t>
-  </si>
-  <si>
-    <t>Create normal service</t>
-  </si>
-  <si>
-    <t>Create service belong to multiple collection</t>
-  </si>
-  <si>
-    <t>Check service belong to multiple collection on SF</t>
   </si>
   <si>
     <t>CS01</t>
@@ -163,32 +84,73 @@
     <t>CS07</t>
   </si>
   <si>
-    <t>CS08</t>
+    <t>Create normal service and verify on SF</t>
   </si>
   <si>
-    <t>CS09</t>
+    <t>Create service belong to 1 collection and check on SF</t>
   </si>
   <si>
-    <t>CS10</t>
+    <t>1. Login to Dashboard &gt;&gt; Create Service page.
+2. Create service successful
+3. Go to SF &gt;&gt; Search and go to search detail page
+4. Check service infor: Service name, Price, Image, Location, Time, Book Now button, Add to cart button, Description, Collection link
+5. Click on Collection link 
+6. Verify new service display in collection page</t>
   </si>
   <si>
-    <t>CS11</t>
+    <t>Create successfull message should be shown.
+Service infor should be show correctly as created and shown in collection page</t>
   </si>
   <si>
-    <t>CS12</t>
+    <t>Create service belong to multiple collection and check on SF</t>
   </si>
   <si>
-    <t>PASS</t>
+    <t>1. Login to Dashboard &gt;&gt; Create Service page.
+2. Create service successful
+3. Go to SF &gt;&gt; Search and go to search detail page
+4. Check service infor: Service name, Price, Image, Location, Time, Book Now button, Add to cart button, Description, All Services link
+5. Click on All Services link 
+6. Verify new service display in all services page</t>
   </si>
   <si>
-    <t>FAIL</t>
+    <t>1. Login to Dashboard &gt;&gt; Create Service page.
+2. Check create successful
+3. Go to SF &gt;&gt; Search and go to search detail page
+4. Check service infor: Service name, Price, Image, Location, Time, Book Now button, Add to cart button, Contact now button, Description, Collection link
+5. Click on Collection link 
+6. Verify new service display in collection page</t>
+  </si>
+  <si>
+    <t>Create successfull message should be shown.
+Service infor should be show correctly as created and shown in collection page 
+Contact Now button should be shown instead of Book now button and Add to cart button. 
+Price should be not shown.</t>
+  </si>
+  <si>
+    <t>Create service has SEO infor and check on SF</t>
+  </si>
+  <si>
+    <t>1. Login to Dashboard &gt;&gt; Create Service page.
+2. Check create successful
+3. Go to SF &gt;&gt; Search and go to search detail page
+4. Check meta tag</t>
+  </si>
+  <si>
+    <t>Create successfull message should be shown.
+"meta tag has name=""title"", content = &lt;SEO title&gt;
+meta tag has name=""description"", content = &lt;SEO description&gt;
+meta tag has name=""keyword"", content = &lt;SEO keyword&gt;
+Service detail page should be navigated from SEO url"</t>
+  </si>
+  <si>
+    <t>Create successfull message should be shown.
+Service infor should be show correctly as created and shown in all services page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -495,16 +457,16 @@
   </sheetPr>
   <dimension ref="A1:E1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="38.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="54.109375" collapsed="true"/>
+    <col min="1" max="1" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.77734375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="38.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -526,7 +488,7 @@
     </row>
     <row r="2" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -537,196 +499,120 @@
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="3" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="159" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="79.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="106.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="106.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="119.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" t="s">
-        <v>44</v>
-      </c>
+    </row>
+    <row r="9" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>

--- a/src/main/resources/excels/CreateService.xlsx
+++ b/src/main/resources/excels/CreateService.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\projectIJ\src\main\resources\excels\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -146,11 +146,18 @@
     <t>Create successfull message should be shown.
 Service infor should be show correctly as created and shown in all services page</t>
   </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -463,10 +470,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="38.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="54.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="38.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="54.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -499,6 +506,9 @@
       <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -513,6 +523,9 @@
       <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -527,6 +540,9 @@
       <c r="D4" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -541,6 +557,9 @@
       <c r="D5" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -555,6 +574,9 @@
       <c r="D6" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="159" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -569,6 +591,9 @@
       <c r="D7" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="79.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -583,6 +608,9 @@
       <c r="D8" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>

--- a/src/main/resources/excels/CreateService.xlsx
+++ b/src/main/resources/excels/CreateService.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>TestCase ID</t>
   </si>

--- a/src/main/resources/excels/CreateService.xlsx
+++ b/src/main/resources/excels/CreateService.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="33">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -524,7 +524,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.3">

--- a/src/main/resources/excels/CreateService.xlsx
+++ b/src/main/resources/excels/CreateService.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="33">
   <si>
     <t>TestCase ID</t>
   </si>

--- a/src/main/resources/excels/CreateService.xlsx
+++ b/src/main/resources/excels/CreateService.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="80">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -325,6 +325,9 @@
   </si>
   <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -795,7 +798,9 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -810,7 +815,9 @@
       <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -825,7 +832,9 @@
       <c r="D4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -840,7 +849,9 @@
       <c r="D5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -855,7 +866,9 @@
       <c r="D6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="159" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -870,7 +883,9 @@
       <c r="D7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="79.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -885,7 +900,9 @@
       <c r="D8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
@@ -900,7 +917,9 @@
       <c r="D9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="13"/>
+      <c r="E9" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
@@ -915,7 +934,9 @@
       <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
@@ -947,7 +968,9 @@
       <c r="D12" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
@@ -962,7 +985,9 @@
       <c r="D13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="132.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
@@ -977,7 +1002,9 @@
       <c r="D14" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
@@ -992,7 +1019,9 @@
       <c r="D15" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
@@ -1007,7 +1036,9 @@
       <c r="D16" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="13"/>
+      <c r="E16" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="79.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
@@ -1022,7 +1053,9 @@
       <c r="D17" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="13"/>
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="119.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
@@ -1037,7 +1070,9 @@
       <c r="D18" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="13"/>
+      <c r="E18" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
@@ -1052,7 +1087,9 @@
       <c r="D19" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="13"/>
+      <c r="E19" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
@@ -1067,7 +1104,9 @@
       <c r="D20" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="13"/>
+      <c r="E20" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>

--- a/src/main/resources/excels/CreateService.xlsx
+++ b/src/main/resources/excels/CreateService.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\projectIJ\src\main\resources\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805048D3-FCCD-4F25-A9CF-A95E01F5AFB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09643338-8101-494E-B616-42B74AB125AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>Expected</t>
-  </si>
-  <si>
-    <t>Result</t>
   </si>
   <si>
     <t>Check text by language</t>
@@ -328,6 +325,12 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>Result ENG</t>
+  </si>
+  <si>
+    <t>Result VIE</t>
   </si>
 </sst>
 </file>
@@ -384,7 +387,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -453,21 +456,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -480,24 +468,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -523,19 +498,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,10 +722,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E1004"/>
+  <dimension ref="A1:F1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -768,7 +736,7 @@
     <col min="4" max="4" customWidth="true" width="54.109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -782,330 +750,339 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="B4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="159" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
+      <c r="B9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="159" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="79.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
+    <row r="10" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="10" t="s">
+    <row r="11" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E11" t="s">
+      <c r="B12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="10" t="s">
+    <row r="13" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="E13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="132.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="132.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="E15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="D16" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>62</v>
-      </c>
       <c r="E16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="79.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="D17" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>66</v>
-      </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="119.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="D18" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>70</v>
-      </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="D19" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>74</v>
-      </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>77</v>
-      </c>
       <c r="D20" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">

--- a/src/main/resources/excels/CreateService.xlsx
+++ b/src/main/resources/excels/CreateService.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -769,10 +769,10 @@
       <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>78</v>
       </c>
     </row>
@@ -789,7 +789,10 @@
       <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="F3" t="s" s="0">
         <v>78</v>
       </c>
     </row>
@@ -806,10 +809,10 @@
       <c r="D4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>78</v>
       </c>
     </row>
@@ -826,7 +829,7 @@
       <c r="D5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>78</v>
       </c>
     </row>
@@ -843,7 +846,7 @@
       <c r="D6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>78</v>
       </c>
     </row>
@@ -860,7 +863,7 @@
       <c r="D7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>78</v>
       </c>
     </row>
@@ -877,7 +880,7 @@
       <c r="D8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>77</v>
       </c>
     </row>
@@ -894,7 +897,7 @@
       <c r="D9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>78</v>
       </c>
     </row>
@@ -911,7 +914,7 @@
       <c r="D10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>78</v>
       </c>
     </row>
@@ -928,7 +931,10 @@
       <c r="D11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="F11" t="s" s="0">
         <v>77</v>
       </c>
     </row>
@@ -945,7 +951,7 @@
       <c r="D12" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="0">
         <v>78</v>
       </c>
     </row>
@@ -962,7 +968,7 @@
       <c r="D13" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="0">
         <v>78</v>
       </c>
     </row>
@@ -979,7 +985,7 @@
       <c r="D14" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="0">
         <v>78</v>
       </c>
     </row>
@@ -996,7 +1002,7 @@
       <c r="D15" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="0">
         <v>78</v>
       </c>
     </row>
@@ -1013,7 +1019,7 @@
       <c r="D16" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="0">
         <v>78</v>
       </c>
     </row>
@@ -1030,7 +1036,7 @@
       <c r="D17" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="0">
         <v>78</v>
       </c>
     </row>
@@ -1047,7 +1053,7 @@
       <c r="D18" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="0">
         <v>78</v>
       </c>
     </row>
@@ -1064,7 +1070,7 @@
       <c r="D19" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="0">
         <v>78</v>
       </c>
     </row>
@@ -1081,7 +1087,7 @@
       <c r="D20" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="s" s="0">
         <v>78</v>
       </c>
     </row>

--- a/src/main/resources/excels/CreateService.xlsx
+++ b/src/main/resources/excels/CreateService.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\projectIJ\src\main\resources\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09643338-8101-494E-B616-42B74AB125AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECD0861-7513-4BFE-98A2-B533C70C6ACF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="105">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -332,12 +332,100 @@
   <si>
     <t>Result VIE</t>
   </si>
+  <si>
+    <t>Mobile_Service detail</t>
+  </si>
+  <si>
+    <t>SD01</t>
+  </si>
+  <si>
+    <t>Check normal service</t>
+  </si>
+  <si>
+    <t>1. Lanch app. Call api create service
+2. Go to search bar, search service
+3. Verify search suggestion
+4. Go to service detail, verify service info (name, price, description, location</t>
+  </si>
+  <si>
+    <t>Service infor should be show correctly as created.</t>
+  </si>
+  <si>
+    <t>SD02</t>
+  </si>
+  <si>
+    <t>Check listing service</t>
+  </si>
+  <si>
+    <t>Service infor should be show correctly as created. 
+Price not show
+Contact now button should be show instead of Book now button.</t>
+  </si>
+  <si>
+    <t>SD03</t>
+  </si>
+  <si>
+    <t>Check service detail after edit translation</t>
+  </si>
+  <si>
+    <t>1. Launch app. Call api create service, call API edit translation
+2. Go to search bar, search service
+3. Verify search suggestion
+4. Go to service detail, verify service info (name, description, location</t>
+  </si>
+  <si>
+    <t>Service infor should be show correctly as edited.</t>
+  </si>
+  <si>
+    <t>SD04</t>
+  </si>
+  <si>
+    <t>Check guest tap on book now button</t>
+  </si>
+  <si>
+    <t>1. Launch app.
+2. Go to search bar, search service
+3. Go to service detail, tap on Book now
+4. Verify Require Login popup</t>
+  </si>
+  <si>
+    <t>The require login popup should be shown</t>
+  </si>
+  <si>
+    <t>SD05</t>
+  </si>
+  <si>
+    <t>Check customer tap on book now button</t>
+  </si>
+  <si>
+    <t>1. Launch app. Login to app
+2. Go to search bar, search service
+3. Go to service detail, tap on Book now
+4. Verify select location page</t>
+  </si>
+  <si>
+    <t>The choose location page should be shown</t>
+  </si>
+  <si>
+    <t>SD06</t>
+  </si>
+  <si>
+    <t>Check tap on Contact Now button</t>
+  </si>
+  <si>
+    <t>1. Launch app.
+2. Go to search bar, search listing service
+3. Go to service detail, tap on Contact now
+4. Verify contact popup</t>
+  </si>
+  <si>
+    <t>The contact popup should be shown</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -367,7 +455,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,13 +474,68 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -405,9 +548,7 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -420,51 +561,43 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,37 +605,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -722,431 +865,657 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F1004"/>
+  <dimension ref="A1:Z1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="38.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="54.109375" collapsed="true"/>
+    <col min="1" max="1" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.77734375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="38.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:6" ht="145.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:6" ht="145.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="E5" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="145.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="E6" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="159" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" ht="158.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="E7" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="79.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E8" t="s" s="0">
+      <c r="E8" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E9" t="s" s="0">
+      <c r="E9" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E10" t="s" s="0">
+      <c r="E10" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="E11" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F11" t="s" s="0">
+      <c r="F11" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E12" t="s" s="0">
+      <c r="E12" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E13" t="s" s="0">
+      <c r="E13" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="132.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="132" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="10" t="s">
         <v>52</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E14" t="s" s="0">
+      <c r="E14" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="10" t="s">
         <v>56</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E15" t="s" s="0">
+      <c r="E15" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E16" t="s" s="0">
+      <c r="E16" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="79.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:26" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="10" t="s">
         <v>64</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E17" t="s" s="0">
+      <c r="E17" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="119.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:26" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="10" t="s">
         <v>68</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E18" t="s" s="0">
+      <c r="E18" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="10" t="s">
         <v>72</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E19" t="s" s="0">
+      <c r="E19" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:26" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="10" t="s">
         <v>76</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E20" t="s" s="0">
+      <c r="E20" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:26" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+    </row>
+    <row r="22" spans="1:26" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+    </row>
+    <row r="23" spans="1:26" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+    </row>
+    <row r="24" spans="1:26" ht="79.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+    </row>
+    <row r="25" spans="1:26" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+    </row>
+    <row r="26" spans="1:26" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+    </row>
+    <row r="27" spans="1:26" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+    </row>
+    <row r="28" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -6012,6 +6381,9 @@
       <c r="D1004" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A21:F21"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/excels/CreateService.xlsx
+++ b/src/main/resources/excels/CreateService.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\projectIJ\src\main\resources\excels\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="105">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -426,6 +426,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -873,10 +874,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="38.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="54.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="38.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="54.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
@@ -975,7 +976,9 @@
       <c r="E5" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" t="s" s="0">
+        <v>78</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -993,7 +996,9 @@
       <c r="E6" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" t="s" s="0">
+        <v>78</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -1011,7 +1016,9 @@
       <c r="E7" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" t="s" s="0">
+        <v>78</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -1029,7 +1036,9 @@
       <c r="E8" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" t="s" s="0">
+        <v>78</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -1047,7 +1056,9 @@
       <c r="E9" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" t="s" s="0">
+        <v>78</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -1065,7 +1076,9 @@
       <c r="E10" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" t="s" s="0">
+        <v>78</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -1084,7 +1097,7 @@
         <v>77</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
@@ -1103,7 +1116,9 @@
       <c r="E12" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" t="s" s="0">
+        <v>78</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -1121,7 +1136,9 @@
       <c r="E13" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" t="s" s="0">
+        <v>78</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="132" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -1139,7 +1156,9 @@
       <c r="E14" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" t="s" s="0">
+        <v>77</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
@@ -1157,7 +1176,9 @@
       <c r="E15" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="8"/>
+      <c r="F15" t="s" s="0">
+        <v>78</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
@@ -1175,7 +1196,9 @@
       <c r="E16" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" t="s" s="0">
+        <v>78</v>
+      </c>
     </row>
     <row r="17" spans="1:26" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
@@ -1193,7 +1216,9 @@
       <c r="E17" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" t="s" s="0">
+        <v>78</v>
+      </c>
     </row>
     <row r="18" spans="1:26" ht="118.8" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
@@ -1211,7 +1236,9 @@
       <c r="E18" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="8"/>
+      <c r="F18" t="s" s="0">
+        <v>78</v>
+      </c>
     </row>
     <row r="19" spans="1:26" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
@@ -1229,7 +1256,9 @@
       <c r="E19" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" t="s" s="0">
+        <v>78</v>
+      </c>
     </row>
     <row r="20" spans="1:26" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
@@ -1247,7 +1276,9 @@
       <c r="E20" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="8"/>
+      <c r="F20" t="s" s="0">
+        <v>78</v>
+      </c>
     </row>
     <row r="21" spans="1:26" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">

--- a/src/main/resources/excels/CreateService.xlsx
+++ b/src/main/resources/excels/CreateService.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\projectIJ\src\main\resources\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\GoSELL-Automation1\src\main\resources\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECD0861-7513-4BFE-98A2-B533C70C6ACF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2509FF5E-FF6E-45F1-B240-29A3C0E680E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="134">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -420,6 +420,112 @@
   </si>
   <si>
     <t>The contact popup should be shown</t>
+  </si>
+  <si>
+    <t>SD07</t>
+  </si>
+  <si>
+    <t>1. Launch app.
+2. Go to service detail.
+3. Verify all text</t>
+  </si>
+  <si>
+    <t>SD08</t>
+  </si>
+  <si>
+    <t>Check similar section display</t>
+  </si>
+  <si>
+    <t>1. Launch app.
+2. Go to service detail.
+3. Scroll down to verify similar section</t>
+  </si>
+  <si>
+    <t>The similar section should be show</t>
+  </si>
+  <si>
+    <t>SD09</t>
+  </si>
+  <si>
+    <t>Check when tap on description tab, location tab, Similar tab</t>
+  </si>
+  <si>
+    <t>1. Launch app.
+2. Go to service detail.
+3. Tap on similar tab &gt;&gt; Verify
+4. Tap on description tab &gt;&gt; Verify
+5. Tap on location tab &gt;&gt; Verify</t>
+  </si>
+  <si>
+    <t>The corresponding section should be shown</t>
+  </si>
+  <si>
+    <t>SD10</t>
+  </si>
+  <si>
+    <t>Check guest tap on Add to cart icon</t>
+  </si>
+  <si>
+    <t>1. Launch app.
+2. Go to service detail.
+3. Tap on Add to cart button and verify</t>
+  </si>
+  <si>
+    <t>Require login pop up should be shown</t>
+  </si>
+  <si>
+    <t>SD11</t>
+  </si>
+  <si>
+    <t>Check customer tap on Add to cart icon</t>
+  </si>
+  <si>
+    <t>1. Launch app. Login with buyer account
+2. Go to service detail.
+3. Tap on Add to cart button and verify</t>
+  </si>
+  <si>
+    <t>SD12</t>
+  </si>
+  <si>
+    <t>Check service infor after update</t>
+  </si>
+  <si>
+    <t>1. Launch app.
+2. Call api edit service
+3. Go to service detail to check service info (name, description, listing price, selling price, loctaions, times)</t>
+  </si>
+  <si>
+    <t>The service info on service detail should be updated</t>
+  </si>
+  <si>
+    <t>SD13</t>
+  </si>
+  <si>
+    <t>Check service after deactive/active</t>
+  </si>
+  <si>
+    <t>1. Launch app
+2. Call API deactive service, search service to verify
+3. Call API active service, search service to verify</t>
+  </si>
+  <si>
+    <t>The service should not be found in case deactive
+The service should be found in case active</t>
+  </si>
+  <si>
+    <t>SD14</t>
+  </si>
+  <si>
+    <t>Check service after delete</t>
+  </si>
+  <si>
+    <t>1. Launch app 
+2. Call API delete service
+3. Search service to verify</t>
+  </si>
+  <si>
+    <t>The service should be not found</t>
   </si>
 </sst>
 </file>
@@ -488,7 +594,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -602,11 +708,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -647,6 +839,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -868,8 +1090,8 @@
   </sheetPr>
   <dimension ref="A1:Z1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -940,7 +1162,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
@@ -980,7 +1202,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="145.19999999999999" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
@@ -1040,7 +1262,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>30</v>
       </c>
@@ -1060,7 +1282,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>34</v>
       </c>
@@ -1080,7 +1302,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>38</v>
       </c>
@@ -1320,11 +1542,13 @@
       <c r="C22" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="21" t="s">
         <v>85</v>
       </c>
       <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="F22" t="s" s="0">
+        <v>78</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1356,11 +1580,13 @@
       <c r="C23" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="21" t="s">
         <v>88</v>
       </c>
       <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="F23" t="s" s="0">
+        <v>78</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1392,11 +1618,13 @@
       <c r="C24" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="21" t="s">
         <v>92</v>
       </c>
       <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="F24" t="s" s="0">
+        <v>78</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -1428,11 +1656,13 @@
       <c r="C25" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="22" t="s">
         <v>96</v>
       </c>
       <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="F25" t="s" s="0">
+        <v>78</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -1464,11 +1694,13 @@
       <c r="C26" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="22" t="s">
         <v>100</v>
       </c>
       <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="F26" t="s" s="0">
+        <v>78</v>
+      </c>
       <c r="G26" s="3"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -1500,11 +1732,13 @@
       <c r="C27" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="22" t="s">
         <v>104</v>
       </c>
       <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="F27" t="s" s="0">
+        <v>78</v>
+      </c>
       <c r="G27" s="3"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -1526,107 +1760,211 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>

--- a/src/main/resources/excels/CreateService.xlsx
+++ b/src/main/resources/excels/CreateService.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="134">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -1156,7 +1156,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>78</v>
@@ -1176,7 +1176,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>78</v>
@@ -1256,7 +1256,7 @@
         <v>28</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s" s="0">
         <v>78</v>
@@ -1296,7 +1296,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F10" t="s" s="0">
         <v>78</v>
@@ -1319,7 +1319,7 @@
         <v>77</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
@@ -1379,7 +1379,7 @@
         <v>78</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="66" x14ac:dyDescent="0.25">

--- a/src/main/resources/excels/CreateService.xlsx
+++ b/src/main/resources/excels/CreateService.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="134">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -1156,7 +1156,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>78</v>
@@ -1296,7 +1296,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s" s="0">
         <v>78</v>
@@ -1416,7 +1416,7 @@
         <v>61</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s" s="0">
         <v>78</v>

--- a/src/main/resources/excels/CreateService.xlsx
+++ b/src/main/resources/excels/CreateService.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="134">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -1136,7 +1136,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>78</v>
@@ -1156,7 +1156,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>78</v>
@@ -1416,7 +1416,7 @@
         <v>61</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s" s="0">
         <v>78</v>

--- a/src/main/resources/excels/CreateService.xlsx
+++ b/src/main/resources/excels/CreateService.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="134">
   <si>
     <t>TestCase ID</t>
   </si>
